--- a/frontend/public/documents/plantillas/excel/Plantilla_Lista_Egresados.xlsx
+++ b/frontend/public/documents/plantillas/excel/Plantilla_Lista_Egresados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Documents\ServicioSocial\Indices\frontend\public\documents\plantillas\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE78A40-39D4-4CDC-8A9D-BC2CF2CFDD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC023FC-3A04-4264-A41F-EBFE4F7ACA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{929406A0-D4BB-4A68-9B6A-092CE288624F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{929406A0-D4BB-4A68-9B6A-092CE288624F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Control</t>
+    <t>NO_CONTROL</t>
   </si>
   <si>
-    <t>Carrera</t>
+    <t>PERIODO</t>
   </si>
   <si>
-    <t>Periodo de egreso</t>
+    <t>EGRESO</t>
+  </si>
+  <si>
+    <t>(CAMBIAR EL TITULO DE LA COLUMNA PERIODO POR EL NUMERO DE PERIODO CORRESPONDIENTE)</t>
   </si>
 </sst>
 </file>
@@ -133,18 +136,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
+    <cellStyle name="40% - Énfasis3" xfId="1" builtinId="39"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -176,20 +196,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -209,19 +215,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0B9277E9-ADAF-47E3-BF09-C5DB078B7FB4}" name="Table2" displayName="Table2" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="1" headerRowCellStyle="40% - Accent3">
-  <autoFilter ref="A1:C1048576" xr:uid="{0B9277E9-ADAF-47E3-BF09-C5DB078B7FB4}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0698CDFD-4E11-46EC-956E-0061CF5F3BC1}" name="Control"/>
-    <tableColumn id="2" xr3:uid="{9CE5FF47-975E-4C85-BED8-AA8D89E383FA}" name="Carrera"/>
-    <tableColumn id="3" xr3:uid="{5B3837E5-A536-488B-97EB-95EC2983475F}" name="Periodo de egreso"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0B9277E9-ADAF-47E3-BF09-C5DB078B7FB4}" name="Table2" displayName="Table2" ref="A1:B1048576" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:B1048576" xr:uid="{0B9277E9-ADAF-47E3-BF09-C5DB078B7FB4}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0698CDFD-4E11-46EC-956E-0061CF5F3BC1}" name="NO_CONTROL"/>
+    <tableColumn id="2" xr3:uid="{9CE5FF47-975E-4C85-BED8-AA8D89E383FA}" name="PERIODO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -517,1040 +522,856 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D30457-7500-45C1-9B39-300512B564F1}">
-  <dimension ref="A1:C200"/>
+  <dimension ref="A1:I200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>20490712</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{9F3928F2-2938-4609-8D7F-1DCE75852E68}">
-      <formula1>12</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{924D7F92-AB84-46A2-829E-FD93E5EC3FC1}">
-      <formula1>1</formula1>
-      <formula2>20</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{A7DCEC0B-5B16-414D-9594-7967A26E6840}">
-      <formula1>6</formula1>
-    </dataValidation>
-  </dataValidations>
+  <mergeCells count="1">
+    <mergeCell ref="D4:I7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
